--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value783.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value783.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.014745808715796</v>
+        <v>1.788608551025391</v>
       </c>
       <c r="B1">
-        <v>3.46631260668955</v>
+        <v>4.140255928039551</v>
       </c>
       <c r="C1">
-        <v>3.288207698294655</v>
+        <v>2.023570775985718</v>
       </c>
       <c r="D1">
-        <v>2.189852199543086</v>
+        <v>0.8889397382736206</v>
       </c>
       <c r="E1">
-        <v>1.20967344466611</v>
+        <v>0.479514479637146</v>
       </c>
     </row>
   </sheetData>
